--- a/update_instances/ig/StructureDefinition-prescription-item.xlsx
+++ b/update_instances/ig/StructureDefinition-prescription-item.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:24:55+00:00</t>
+    <t>2024-03-27T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1761,7 +1761,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].start</t>
   </si>
   <si>
-    <t>Start of the dosage period</t>
+    <t>Minimum start time for event</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x]:boundsPeriod.end</t>
@@ -1770,7 +1770,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].end</t>
   </si>
   <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
+    <t>Maximum start time for event</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.repeat.count</t>
@@ -13254,7 +13254,7 @@
         <v>89</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>79</v>
